--- a/teaching/traditional_assets/database/data/serbia/serbia_rubber_tires.xlsx
+++ b/teaching/traditional_assets/database/data/serbia/serbia_rubber_tires.xlsx
@@ -590,116 +590,116 @@
           <t>Rubber&amp; Tires</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0373</v>
+      </c>
       <c r="G2">
-        <v>-0.07184873949579831</v>
+        <v>-0.04081081081081081</v>
       </c>
       <c r="H2">
-        <v>-0.07184873949579831</v>
+        <v>-0.04081081081081081</v>
       </c>
       <c r="I2">
-        <v>-0.1214285714285714</v>
+        <v>-0.1045045045045045</v>
       </c>
       <c r="J2">
-        <v>-0.1214285714285714</v>
+        <v>-0.1045045045045045</v>
       </c>
       <c r="K2">
-        <v>-5.78</v>
+        <v>-4.18</v>
       </c>
       <c r="L2">
-        <v>-0.2428571428571429</v>
+        <v>-0.1882882882882883</v>
       </c>
       <c r="M2">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.04758842443729903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.02560553633217993</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04758842443729903</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.02560553633217993</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>0.9350000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="V2">
-        <v>0.3006430868167203</v>
+        <v>0.6256410256410256</v>
       </c>
       <c r="W2">
-        <v>0.3802631578947369</v>
+        <v>0.2271739130434783</v>
       </c>
       <c r="X2">
-        <v>0.7823094205350807</v>
+        <v>1.400551290075521</v>
       </c>
       <c r="Y2">
-        <v>-0.4020462626403438</v>
+        <v>-1.173377377032043</v>
       </c>
       <c r="Z2">
-        <v>0.9319810471081176</v>
+        <v>1.043968963084881</v>
       </c>
       <c r="AA2">
-        <v>-0.1131691271488428</v>
+        <v>-0.1090994592052668</v>
       </c>
       <c r="AB2">
-        <v>0.1162940519772688</v>
+        <v>0.111001412584427</v>
       </c>
       <c r="AC2">
-        <v>-0.2294631791261116</v>
+        <v>-0.2201008717896939</v>
       </c>
       <c r="AD2">
-        <v>40.6</v>
+        <v>43</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>40.6</v>
+        <v>43</v>
       </c>
       <c r="AG2">
-        <v>39.665</v>
+        <v>41.78</v>
       </c>
       <c r="AH2">
-        <v>0.9288492335849921</v>
+        <v>0.9566184649610678</v>
       </c>
       <c r="AI2">
-        <v>1.75</v>
+        <v>2.028301886792453</v>
       </c>
       <c r="AJ2">
-        <v>0.9272939801285798</v>
+        <v>0.9554081865995884</v>
       </c>
       <c r="AK2">
-        <v>1.78149562092971</v>
+        <v>2.091091091091091</v>
       </c>
       <c r="AL2">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="AM2">
-        <v>2.373</v>
+        <v>1.917</v>
       </c>
       <c r="AN2">
-        <v>-25.21739130434782</v>
+        <v>-42.57425742574257</v>
       </c>
       <c r="AO2">
-        <v>-1.214285714285714</v>
+        <v>-1.202072538860104</v>
       </c>
       <c r="AP2">
-        <v>-24.63664596273292</v>
+        <v>-41.36633663366337</v>
       </c>
       <c r="AQ2">
-        <v>-1.217867678044669</v>
+        <v>-1.210224308815858</v>
       </c>
     </row>
     <row r="3">
@@ -718,116 +718,116 @@
           <t>Rubber&amp; Tires</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.0373</v>
+      </c>
       <c r="G3">
-        <v>-0.07184873949579831</v>
+        <v>-0.04081081081081081</v>
       </c>
       <c r="H3">
-        <v>-0.07184873949579831</v>
+        <v>-0.04081081081081081</v>
       </c>
       <c r="I3">
-        <v>-0.1214285714285714</v>
+        <v>-0.1045045045045045</v>
       </c>
       <c r="J3">
-        <v>-0.1214285714285714</v>
+        <v>-0.1045045045045045</v>
       </c>
       <c r="K3">
-        <v>-5.78</v>
+        <v>-4.18</v>
       </c>
       <c r="L3">
-        <v>-0.2428571428571429</v>
+        <v>-0.1882882882882883</v>
       </c>
       <c r="M3">
-        <v>0.148</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.04758842443729903</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.02560553633217993</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.148</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.04758842443729903</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.02560553633217993</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.9350000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="V3">
-        <v>0.3006430868167203</v>
+        <v>0.6256410256410256</v>
       </c>
       <c r="W3">
-        <v>0.3802631578947369</v>
+        <v>0.2271739130434783</v>
       </c>
       <c r="X3">
-        <v>0.7823094205350807</v>
+        <v>1.400551290075521</v>
       </c>
       <c r="Y3">
-        <v>-0.4020462626403438</v>
+        <v>-1.173377377032043</v>
       </c>
       <c r="Z3">
-        <v>0.9319810471081176</v>
+        <v>1.043968963084881</v>
       </c>
       <c r="AA3">
-        <v>-0.1131691271488428</v>
+        <v>-0.1090994592052668</v>
       </c>
       <c r="AB3">
-        <v>0.1162940519772688</v>
+        <v>0.111001412584427</v>
       </c>
       <c r="AC3">
-        <v>-0.2294631791261116</v>
+        <v>-0.2201008717896939</v>
       </c>
       <c r="AD3">
-        <v>40.6</v>
+        <v>43</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>40.6</v>
+        <v>43</v>
       </c>
       <c r="AG3">
-        <v>39.665</v>
+        <v>41.78</v>
       </c>
       <c r="AH3">
-        <v>0.9288492335849921</v>
+        <v>0.9566184649610678</v>
       </c>
       <c r="AI3">
-        <v>1.75</v>
+        <v>2.028301886792453</v>
       </c>
       <c r="AJ3">
-        <v>0.9272939801285798</v>
+        <v>0.9554081865995884</v>
       </c>
       <c r="AK3">
-        <v>1.78149562092971</v>
+        <v>2.091091091091091</v>
       </c>
       <c r="AL3">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="AM3">
-        <v>2.373</v>
+        <v>1.917</v>
       </c>
       <c r="AN3">
-        <v>-25.21739130434782</v>
+        <v>-42.57425742574257</v>
       </c>
       <c r="AO3">
-        <v>-1.214285714285714</v>
+        <v>-1.202072538860104</v>
       </c>
       <c r="AP3">
-        <v>-24.63664596273292</v>
+        <v>-41.36633663366337</v>
       </c>
       <c r="AQ3">
-        <v>-1.217867678044669</v>
+        <v>-1.210224308815858</v>
       </c>
     </row>
   </sheetData>
